--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C3BC2-D51D-4327-8198-B9B566A53F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D512B-D5BA-4A49-B1DE-8A7DC026FADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
     <sheet name="TempBasket" sheetId="3" r:id="rId2"/>
     <sheet name="OrderHistory" sheetId="5" r:id="rId3"/>
     <sheet name="Food" sheetId="2" r:id="rId4"/>
+    <sheet name="ImagePath" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>FirstName</t>
   </si>
@@ -379,6 +380,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: ChocolateBrowine, price: 1.00 pounds, quantity: 4
+Item: SingleCheese, price: 1.00 pounds, quantity: 3
+Item: DonkAsk, price: 1.00 pounds, quantity: 2
+Item: CknStkSandwiche, price: 1.00 pounds
+Total cost: 10.00 pounds
+</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Expresso</t>
   </si>
 </sst>
 </file>
@@ -750,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -893,7 +912,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -960,10 +979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A2:C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,67 +998,72 @@
     <col min="9" max="9" customWidth="true" width="13.33203125"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="0">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n" s="0">
-        <v>1.0</v>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1057,12 +1081,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -1084,8 +1108,11 @@
       <c r="G2" t="s" s="0">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
@@ -1102,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,4 +1475,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A1140-1B17-4BA8-AE4E-8CEC0B814030}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>FirstName</t>
   </si>
@@ -398,6 +398,28 @@
   </si>
   <si>
     <t>Expresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: Espresso, price: 1.00 pounds
+Item: ChickenWrap, price: 1.00 pounds, quantity: 3
+Total cost: 4.00 pounds
+</t>
+  </si>
+  <si>
+    <t>CafeMate0007</t>
+  </si>
+  <si>
+    <t>kip</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -767,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -965,6 +987,29 @@
       </c>
       <c r="H7" t="s" s="0">
         <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1110,6 +1155,9 @@
       </c>
       <c r="H2" t="s" s="0">
         <v>103</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -3,25 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Project\CAFE94\cafe94\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D512B-D5BA-4A49-B1DE-8A7DC026FADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109067D7-9380-42F5-8A32-29625309A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
-    <sheet name="TempBasket" sheetId="3" r:id="rId2"/>
-    <sheet name="OrderHistory" sheetId="5" r:id="rId3"/>
-    <sheet name="Food" sheetId="2" r:id="rId4"/>
-    <sheet name="ImagePath" sheetId="6" r:id="rId5"/>
+    <sheet name="DeliveryOrders" sheetId="7" r:id="rId2"/>
+    <sheet name="TempBasket" sheetId="3" r:id="rId3"/>
+    <sheet name="OrderHistory" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="Food" sheetId="2" r:id="rId6"/>
+    <sheet name="ImagePath" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>FirstName</t>
   </si>
@@ -289,9 +291,6 @@
   </si>
   <si>
     <t>3335545446464</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>No</t>
@@ -421,12 +420,26 @@
   <si>
     <t>123</t>
   </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0004 has the following items:
+Item: Espresso, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>OrdeStatus</t>
+  </si>
+  <si>
+    <t>BasketIfno</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -792,224 +805,227 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125"/>
-    <col min="3" max="3" customWidth="true" width="15.0"/>
-    <col min="4" max="4" customWidth="true" width="18.0"/>
-    <col min="5" max="5" customWidth="true" width="22.6640625"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875"/>
-    <col min="7" max="7" customWidth="true" width="10.109375"/>
-    <col min="8" max="8" customWidth="true" width="11.77734375"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="0">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s" s="0">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s" s="0">
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s" s="0">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="E8" t="s">
         <v>109</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="F8" t="s">
         <v>110</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="G8" t="s">
         <v>111</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>112</v>
+      <c r="H8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1023,92 +1039,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="17.77734375"/>
-    <col min="2" max="2" customWidth="true" width="18.33203125"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625"/>
-    <col min="4" max="4" customWidth="true" width="18.88671875"/>
-    <col min="5" max="5" customWidth="true" width="17.33203125"/>
-    <col min="6" max="6" customWidth="true" width="15.77734375"/>
-    <col min="7" max="7" customWidth="true" width="14.44140625"/>
-    <col min="8" max="8" customWidth="true" width="12.88671875"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="0">
-        <v>1</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1117,8 +1068,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1126,398 +1216,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
-  <dimension ref="A2:H21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.21875"/>
-    <col min="2" max="2" customWidth="true" width="16.5546875"/>
-    <col min="3" max="3" customWidth="true" width="17.21875"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875"/>
-    <col min="6" max="6" customWidth="true" width="9.88671875"/>
-    <col min="7" max="7" customWidth="true" width="12.109375"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B5" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="B11" s="0">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B13" s="0">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B15" s="0">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B17" s="0">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B19" s="0">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B21" s="0">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1526,6 +1280,370 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECA167-0B3C-4752-89D3-A55D3065B7C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
+  <dimension ref="A2:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A1140-1B17-4BA8-AE4E-8CEC0B814030}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1536,16 +1654,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s" s="0">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Project\CAFE94\cafe94\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109067D7-9380-42F5-8A32-29625309A848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7B298-DBC8-4855-8025-B2E945151810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
-    <sheet name="DeliveryOrders" sheetId="7" r:id="rId2"/>
+    <sheet name="StaffData" sheetId="8" r:id="rId2"/>
     <sheet name="TempBasket" sheetId="3" r:id="rId3"/>
     <sheet name="OrderHistory" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="DeliveryOrders" sheetId="7" r:id="rId5"/>
     <sheet name="Food" sheetId="2" r:id="rId6"/>
     <sheet name="ImagePath" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>FirstName</t>
   </si>
@@ -434,6 +434,48 @@
   </si>
   <si>
     <t>BasketIfno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: VeggWrap, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: ChocolateBrowine, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: Macchiato, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t>Second Name</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>juhhh</t>
   </si>
 </sst>
 </file>
@@ -805,7 +847,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,30 +1081,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECA167-0B3C-4752-89D3-A55D3065B7C7}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0710FEC4-65AD-4BAC-9631-1E157BEB2EC5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1072,7 +1160,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,92 +1201,80 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1216,12 +1292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1249,8 +1325,23 @@
       <c r="I2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1266,7 +1357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1280,13 +1371,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECA167-0B3C-4752-89D3-A55D3065B7C7}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Project\CAFE94\cafe94\src\main\java\data\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>FirstName</t>
   </si>
@@ -477,11 +477,27 @@
   <si>
     <t>juhhh</t>
   </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0007 has the following items:
+Item: Espresso, price: 1.00 pounds
+Item: Wrap, price: 1.00 pounds
+Item: DonkAsk, price: 1.00 pounds
+Item: Three, price: 1.00 pounds, quantity: 4
+Total cost: 7.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0007 has the following items:
+Item: SoftDrink, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -852,221 +868,221 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125"/>
+    <col min="3" max="3" customWidth="true" width="15.0"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
+    <col min="5" max="5" customWidth="true" width="22.6640625"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875"/>
+    <col min="7" max="7" customWidth="true" width="10.109375"/>
+    <col min="8" max="8" customWidth="true" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>101</v>
       </c>
     </row>
@@ -1090,60 +1106,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625"/>
+    <col min="3" max="3" customWidth="true" width="13.77734375"/>
+    <col min="6" max="6" customWidth="true" width="15.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>125</v>
       </c>
     </row>
@@ -1165,116 +1181,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625"/>
+    <col min="4" max="4" customWidth="true" width="18.88671875"/>
+    <col min="5" max="5" customWidth="true" width="17.33203125"/>
+    <col min="6" max="6" customWidth="true" width="15.77734375"/>
+    <col min="7" max="7" customWidth="true" width="14.44140625"/>
+    <col min="8" max="8" customWidth="true" width="12.88671875"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="B4" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="B6" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s" s="0">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>5</v>
+      <c r="B13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1293,76 +1324,92 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1381,16 +1428,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>114</v>
       </c>
     </row>
@@ -1409,340 +1456,340 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.21875"/>
+    <col min="2" max="2" customWidth="true" width="16.5546875"/>
+    <col min="3" max="3" customWidth="true" width="17.21875"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875"/>
+    <col min="6" max="6" customWidth="true" width="9.88671875"/>
+    <col min="7" max="7" customWidth="true" width="12.109375"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>1</v>
       </c>
     </row>
@@ -1762,15 +1809,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>105</v>
       </c>
     </row>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Project\CAFE94\cafe94\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7B298-DBC8-4855-8025-B2E945151810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF598B2-2A32-4ABF-B9AB-77DC3952515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1980" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4524" yWindow="2232" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="135">
   <si>
     <t>FirstName</t>
   </si>
@@ -430,12 +430,6 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>OrdeStatus</t>
-  </si>
-  <si>
-    <t>BasketIfno</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basket admin has the following items:
 Item: VeggWrap, price: 1.00 pounds
 Total cost: 1.00 pounds
@@ -489,6 +483,44 @@
   <si>
     <t xml:space="preserve">Basket CafeMate0007 has the following items:
 Item: SoftDrink, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: SoftDrink, price: 1.00 pounds
+Item: Coke, price: 1.00 pounds
+Item: ChickenWrap, price: 1.00 pounds
+Item: Three, price: 1.00 pounds
+Item: ChocolateBrowine, price: 1.00 pounds
+Item: CknSandwiche, price: 1.00 pounds
+Total cost: 6.00 pounds
+</t>
+  </si>
+  <si>
+    <t>BasketInfo</t>
+  </si>
+  <si>
+    <t>Delivery Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: CknSandwiche, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t>User Nmae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiran </t>
+  </si>
+  <si>
+    <t>Kiran Sahukar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: CknStkSandwiche, price: 1.00 pounds
 Total cost: 1.00 pounds
 </t>
   </si>
@@ -927,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1100,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECA167-0B3C-4752-89D3-A55D3065B7C7}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1119,22 +1151,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1148,19 +1180,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>124</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>126</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD7"/>
@@ -1192,12 +1224,12 @@
     <col min="9" max="9" customWidth="true" width="13.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>8</v>
       </c>
@@ -1205,17 +1237,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>66</v>
       </c>
@@ -1223,17 +1255,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>107</v>
       </c>
@@ -1241,71 +1273,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B10" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="B13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E13" t="n" s="0">
-        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1315,20 +1311,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -1360,19 +1359,28 @@
         <v>106</v>
       </c>
       <c r="K2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="N2" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>72</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>72</v>
       </c>
@@ -1396,20 +1404,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1419,26 +1427,69 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="13.109375"/>
+    <col min="3" max="3" customWidth="true" width="18.0"/>
+    <col min="4" max="4" customWidth="true" width="28.21875"/>
+    <col min="5" max="5" customWidth="true" width="13.109375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>115</v>
-      </c>
       <c r="D1" t="s" s="0">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Project\CAFE94\cafe94\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF598B2-2A32-4ABF-B9AB-77DC3952515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8BC96F-3F4E-4965-952E-7402B739653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4524" yWindow="2232" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4524" yWindow="2232" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
   <si>
     <t>FirstName</t>
   </si>
@@ -959,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1289,17 +1289,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>5</v>
       </c>
@@ -1313,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,12 +1322,12 @@
     <col min="1" max="1" customWidth="true" width="23.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>72</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>72</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>107</v>
       </c>
@@ -1429,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1475,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
   <si>
     <t>FirstName</t>
   </si>
@@ -521,6 +521,12 @@
   <si>
     <t xml:space="preserve">Basket admin has the following items:
 Item: CknStkSandwiche, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: Espresso, price: 1.00 pounds
 Total cost: 1.00 pounds
 </t>
   </si>
@@ -959,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1063,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1289,17 +1295,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s" s="0">
         <v>5</v>
       </c>
@@ -1311,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1378,6 +1384,9 @@
       </c>
       <c r="Q2" t="s" s="0">
         <v>134</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Desktop\Project\CAFE94\cafe94\src\main\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8BC96F-3F4E-4965-952E-7402B739653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F632F6-5A93-437D-A5CD-458C287E7DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4524" yWindow="2232" windowWidth="17280" windowHeight="9420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="17280" windowHeight="9420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
   <si>
     <t>FirstName</t>
   </si>
@@ -901,7 +901,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1295,17 +1295,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>5</v>
       </c>
@@ -1319,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1328,12 +1328,12 @@
     <col min="1" max="1" customWidth="true" width="23.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>72</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>72</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>107</v>
       </c>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1481,7 @@
         <v>130</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>134</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="155">
   <si>
     <t>FirstName</t>
   </si>
@@ -527,6 +527,79 @@
   <si>
     <t xml:space="preserve">Basket admin has the following items:
 Item: Espresso, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t>CafeMate0008</t>
+  </si>
+  <si>
+    <t>Cephard</t>
+  </si>
+  <si>
+    <t>Kipkemboi</t>
+  </si>
+  <si>
+    <t>ceph@cafe.com</t>
+  </si>
+  <si>
+    <t>SA1 8EN</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Cephard Kipkemboi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0008 has the following items:
+Item: ChocolateBrowine, price: 1.00 pounds
+Item: CaramelDelux, price: 1.00 pounds
+Item: CknSandwiche, price: 1.00 pounds
+Total cost: 3.00 pounds
+</t>
+  </si>
+  <si>
+    <t>CafeMate0009</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>sai@gmail.com</t>
+  </si>
+  <si>
+    <t>SA1 8BN</t>
+  </si>
+  <si>
+    <t>0712345678</t>
+  </si>
+  <si>
+    <t>Sai Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0009 has the following items:
+Item: DietCoke, price: 1.00 pounds
+Item: CaramelDip, price: 1.00 pounds
+Total cost: 2.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0009 has the following items:
+Item: ChickenWrap, price: 1.00 pounds
+Item: VeggStkWrap, price: 1.00 pounds
+Total cost: 2.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket CafeMate0009 has the following items:
+Item: CaramelDelux, price: 1.00 pounds
 Total cost: 1.00 pounds
 </t>
   </si>
@@ -898,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -1122,6 +1195,58 @@
       </c>
       <c r="H8" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1211,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD7"/>
@@ -1299,15 +1424,72 @@
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="B12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>5</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1499,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1429,6 +1611,33 @@
         <v>126</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1436,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1499,6 +1708,74 @@
       </c>
       <c r="E3" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/cafe94/src/main/java/data/Data.xlsx
+++ b/cafe94/src/main/java/data/Data.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="156">
   <si>
     <t>FirstName</t>
   </si>
@@ -601,6 +601,16 @@
     <t xml:space="preserve">Basket CafeMate0009 has the following items:
 Item: CaramelDelux, price: 1.00 pounds
 Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: ChocolateBrowine, price: 1.00 pounds
+Item: VeggWrap, price: 1.00 pounds, quantity: 4
+Item: Espresso, price: 1.00 pounds, quantity: 2
+Item: CafeLatte, price: 1.00 pounds
+Item: DoubleCheese, price: 1.00 pounds
+Total cost: 9.00 pounds
 </t>
   </si>
 </sst>
@@ -1038,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1246,7 +1256,7 @@
         <v>142</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1420,46 +1430,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13">
       <c r="A13" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="B13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="n" s="0">
-        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -1481,15 +1464,42 @@
       <c r="A17" t="s" s="0">
         <v>145</v>
       </c>
+      <c r="B17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
         <v>145</v>
       </c>
+      <c r="B18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
         <v>145</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -1570,6 +1580,9 @@
       <c r="R2" t="s" s="0">
         <v>135</v>
       </c>
+      <c r="S2" t="s" s="0">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
@@ -1645,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176B597-F071-4D21-ABE6-23242B780A94}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1758,7 +1771,7 @@
         <v>153</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -1775,7 +1788,24 @@
         <v>154</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>83</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
